--- a/data/pca/factorExposure/factorExposure_2009-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01666639425695137</v>
+        <v>0.01630992134459915</v>
       </c>
       <c r="C2">
-        <v>0.001424851172939673</v>
+        <v>-0.0009310322909230426</v>
       </c>
       <c r="D2">
-        <v>-0.007439611360836681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009492787034165066</v>
+      </c>
+      <c r="E2">
+        <v>0.001394919895190452</v>
+      </c>
+      <c r="F2">
+        <v>0.01219344277232368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09073525807878975</v>
+        <v>0.09262844645068287</v>
       </c>
       <c r="C4">
-        <v>0.01983234394321549</v>
+        <v>-0.01454869458428302</v>
       </c>
       <c r="D4">
-        <v>-0.07531448441303117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08191965831097922</v>
+      </c>
+      <c r="E4">
+        <v>0.02647866428264864</v>
+      </c>
+      <c r="F4">
+        <v>-0.03213481269350037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.200586622290391e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.277448939738329e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.199660313546329e-05</v>
+      </c>
+      <c r="E5">
+        <v>1.860282220700401e-05</v>
+      </c>
+      <c r="F5">
+        <v>4.649198806141721e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1532327483240997</v>
+        <v>0.1613737175288114</v>
       </c>
       <c r="C6">
-        <v>0.02916756104991023</v>
+        <v>-0.02824440688907399</v>
       </c>
       <c r="D6">
-        <v>0.03523344704081628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02670056880973459</v>
+      </c>
+      <c r="E6">
+        <v>0.008995526560397628</v>
+      </c>
+      <c r="F6">
+        <v>-0.04098539515431996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06116938578846214</v>
+        <v>0.06245484966094766</v>
       </c>
       <c r="C7">
-        <v>0.00200925561423112</v>
+        <v>0.00159686473738849</v>
       </c>
       <c r="D7">
-        <v>-0.04794280923623447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05249903019747309</v>
+      </c>
+      <c r="E7">
+        <v>0.0129438476504215</v>
+      </c>
+      <c r="F7">
+        <v>-0.04901201563188252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06209559075623732</v>
+        <v>0.05761358625723067</v>
       </c>
       <c r="C8">
-        <v>-0.01067831921809889</v>
+        <v>0.01244889176290045</v>
       </c>
       <c r="D8">
-        <v>-0.02706339314197165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03056543735443038</v>
+      </c>
+      <c r="E8">
+        <v>0.0169670550879952</v>
+      </c>
+      <c r="F8">
+        <v>0.02599748120215517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07001079105494405</v>
+        <v>0.07128229474627371</v>
       </c>
       <c r="C9">
-        <v>0.01619555905999319</v>
+        <v>-0.01029461825919862</v>
       </c>
       <c r="D9">
-        <v>-0.07704803109818276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08580332957598825</v>
+      </c>
+      <c r="E9">
+        <v>0.02411086167624226</v>
+      </c>
+      <c r="F9">
+        <v>-0.04860137231566328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0852576706198471</v>
+        <v>0.08821955861263336</v>
       </c>
       <c r="C10">
-        <v>0.01451905626239997</v>
+        <v>-0.02150031275092536</v>
       </c>
       <c r="D10">
-        <v>0.1647336737624923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1600233941922193</v>
+      </c>
+      <c r="E10">
+        <v>-0.03233391265581255</v>
+      </c>
+      <c r="F10">
+        <v>0.05788126013931453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09103085036737234</v>
+        <v>0.08766265997698519</v>
       </c>
       <c r="C11">
-        <v>0.01734920317419106</v>
+        <v>-0.01123209914644295</v>
       </c>
       <c r="D11">
-        <v>-0.1092516373642846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1177032809263203</v>
+      </c>
+      <c r="E11">
+        <v>0.04758716614508983</v>
+      </c>
+      <c r="F11">
+        <v>-0.02361949555454828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09540979609118713</v>
+        <v>0.08990505491959948</v>
       </c>
       <c r="C12">
-        <v>0.01484171282051833</v>
+        <v>-0.008289244253503733</v>
       </c>
       <c r="D12">
-        <v>-0.1155511015695062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320386502514659</v>
+      </c>
+      <c r="E12">
+        <v>0.04659883565424109</v>
+      </c>
+      <c r="F12">
+        <v>-0.03012713332657177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04424411553033403</v>
+        <v>0.04401573885792849</v>
       </c>
       <c r="C13">
-        <v>0.006131725116330651</v>
+        <v>-0.002426939421809137</v>
       </c>
       <c r="D13">
-        <v>-0.04184049290442887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05338413909041928</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006708593582218285</v>
+      </c>
+      <c r="F13">
+        <v>-0.003798761404565352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01855364025612329</v>
+        <v>0.02342664348052297</v>
       </c>
       <c r="C14">
-        <v>0.01486773925457878</v>
+        <v>-0.01364129909978723</v>
       </c>
       <c r="D14">
-        <v>-0.0295915576190677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03306879625328358</v>
+      </c>
+      <c r="E14">
+        <v>0.01818888137370444</v>
+      </c>
+      <c r="F14">
+        <v>-0.01342899449111757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03298662876624375</v>
+        <v>0.03344521304078443</v>
       </c>
       <c r="C15">
-        <v>0.007353973540253403</v>
+        <v>-0.005201994300075944</v>
       </c>
       <c r="D15">
-        <v>-0.04244468911328623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04646466990769418</v>
+      </c>
+      <c r="E15">
+        <v>0.007631670324751259</v>
+      </c>
+      <c r="F15">
+        <v>-0.02939986651843652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07474854197315418</v>
+        <v>0.07266186026557865</v>
       </c>
       <c r="C16">
-        <v>0.007558828167425948</v>
+        <v>-0.001478254275658024</v>
       </c>
       <c r="D16">
-        <v>-0.1131261668145835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1283158336839413</v>
+      </c>
+      <c r="E16">
+        <v>0.06164497380839418</v>
+      </c>
+      <c r="F16">
+        <v>-0.02636779168501399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001147485932916362</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003025610557948105</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001462885945001643</v>
+      </c>
+      <c r="E17">
+        <v>0.001090183071360572</v>
+      </c>
+      <c r="F17">
+        <v>0.002459402009004729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01918929051986728</v>
+        <v>0.04019150015455999</v>
       </c>
       <c r="C18">
-        <v>-0.002889813338859904</v>
+        <v>0.002927199981944735</v>
       </c>
       <c r="D18">
-        <v>-0.02549093460438437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01589232759609016</v>
+      </c>
+      <c r="E18">
+        <v>-0.007042828831775533</v>
+      </c>
+      <c r="F18">
+        <v>0.009570803693451682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06328725374733093</v>
+        <v>0.06214650922492235</v>
       </c>
       <c r="C20">
-        <v>0.005486459739836964</v>
+        <v>-0.0008932718011282701</v>
       </c>
       <c r="D20">
-        <v>-0.0680958153223119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07859486181147728</v>
+      </c>
+      <c r="E20">
+        <v>0.0572014540115218</v>
+      </c>
+      <c r="F20">
+        <v>-0.02914474906173754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03700652170845393</v>
+        <v>0.04031982991188029</v>
       </c>
       <c r="C21">
-        <v>0.009103791702052081</v>
+        <v>-0.00635465664938343</v>
       </c>
       <c r="D21">
-        <v>-0.03362963366956825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03717536368224913</v>
+      </c>
+      <c r="E21">
+        <v>-0.001568106378418906</v>
+      </c>
+      <c r="F21">
+        <v>0.02607570459463044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04159719730123433</v>
+        <v>0.04484886400221937</v>
       </c>
       <c r="C22">
-        <v>0.002038366186277146</v>
+        <v>-0.0009068227721421769</v>
       </c>
       <c r="D22">
-        <v>0.003397763211768056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006359569927950618</v>
+      </c>
+      <c r="E22">
+        <v>0.03681523426907536</v>
+      </c>
+      <c r="F22">
+        <v>0.05017876745125797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04155998567783383</v>
+        <v>0.04482487040349539</v>
       </c>
       <c r="C23">
-        <v>0.0020279711400422</v>
+        <v>-0.0008978195690484928</v>
       </c>
       <c r="D23">
-        <v>0.003374700831190475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006374067322678689</v>
+      </c>
+      <c r="E23">
+        <v>0.03699819299819341</v>
+      </c>
+      <c r="F23">
+        <v>0.05015141211342685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08192174243974032</v>
+        <v>0.07856634283282286</v>
       </c>
       <c r="C24">
-        <v>0.008084412838046246</v>
+        <v>-0.002195536089197031</v>
       </c>
       <c r="D24">
-        <v>-0.1139982110391263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1205905651343098</v>
+      </c>
+      <c r="E24">
+        <v>0.04947921174843517</v>
+      </c>
+      <c r="F24">
+        <v>-0.02891059841904168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08727953375473639</v>
+        <v>0.08362171952170731</v>
       </c>
       <c r="C25">
-        <v>0.01074447507602783</v>
+        <v>-0.004881586103455155</v>
       </c>
       <c r="D25">
-        <v>-0.09994141371923131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1097067567608078</v>
+      </c>
+      <c r="E25">
+        <v>0.03264329354809798</v>
+      </c>
+      <c r="F25">
+        <v>-0.0266275583633872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05807830423870279</v>
+        <v>0.05989137665222048</v>
       </c>
       <c r="C26">
-        <v>0.01757074755981397</v>
+        <v>-0.01457636990285943</v>
       </c>
       <c r="D26">
-        <v>-0.02869345038429903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04317351047227263</v>
+      </c>
+      <c r="E26">
+        <v>0.02958929156172298</v>
+      </c>
+      <c r="F26">
+        <v>0.008439141873193031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.133907337254491</v>
+        <v>0.1421551892349756</v>
       </c>
       <c r="C28">
-        <v>0.0135181101035041</v>
+        <v>-0.02307474644754515</v>
       </c>
       <c r="D28">
-        <v>0.2679272763101271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.261151554111757</v>
+      </c>
+      <c r="E28">
+        <v>-0.06878965302905504</v>
+      </c>
+      <c r="F28">
+        <v>-0.00497743878404354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02518479284563607</v>
+        <v>0.02864276857965453</v>
       </c>
       <c r="C29">
-        <v>0.009581927668924706</v>
+        <v>-0.008777049784757324</v>
       </c>
       <c r="D29">
-        <v>-0.02825788018150132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03089765163518406</v>
+      </c>
+      <c r="E29">
+        <v>0.01306020924186266</v>
+      </c>
+      <c r="F29">
+        <v>0.01256803142179741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06231998692268818</v>
+        <v>0.05887869756352204</v>
       </c>
       <c r="C30">
-        <v>0.009154482465535057</v>
+        <v>-0.002600538419803021</v>
       </c>
       <c r="D30">
-        <v>-0.0741391922279022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08708312285459245</v>
+      </c>
+      <c r="E30">
+        <v>0.01366410996535976</v>
+      </c>
+      <c r="F30">
+        <v>-0.0784615236177897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05016940584226357</v>
+        <v>0.05142404891133313</v>
       </c>
       <c r="C31">
-        <v>0.01711231681849769</v>
+        <v>-0.01609284240921328</v>
       </c>
       <c r="D31">
-        <v>-0.02301970998415528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02482187990202038</v>
+      </c>
+      <c r="E31">
+        <v>0.02878913747908424</v>
+      </c>
+      <c r="F31">
+        <v>0.0003106962822992321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04697929041007615</v>
+        <v>0.05140436206385164</v>
       </c>
       <c r="C32">
-        <v>0.002287956014855647</v>
+        <v>0.001615423956701166</v>
       </c>
       <c r="D32">
-        <v>-0.02528526941785841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03437994706274986</v>
+      </c>
+      <c r="E32">
+        <v>0.03228385219063963</v>
+      </c>
+      <c r="F32">
+        <v>-0.003139349237056058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09050460978990363</v>
+        <v>0.08935957666759968</v>
       </c>
       <c r="C33">
-        <v>0.01328275496636995</v>
+        <v>-0.006912785997139349</v>
       </c>
       <c r="D33">
-        <v>-0.08682396681215637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1035160826006726</v>
+      </c>
+      <c r="E33">
+        <v>0.04653953596135276</v>
+      </c>
+      <c r="F33">
+        <v>-0.04286843885079263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06892482063112519</v>
+        <v>0.06733720375051586</v>
       </c>
       <c r="C34">
-        <v>0.01562426497508151</v>
+        <v>-0.01036530660265902</v>
       </c>
       <c r="D34">
-        <v>-0.09484667123578966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.109355927244671</v>
+      </c>
+      <c r="E34">
+        <v>0.03559136205453385</v>
+      </c>
+      <c r="F34">
+        <v>-0.03407001007244406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02490193398254989</v>
+        <v>0.02662512611647248</v>
       </c>
       <c r="C35">
-        <v>0.003649710711037173</v>
+        <v>-0.00308008327108364</v>
       </c>
       <c r="D35">
-        <v>-0.008628926425993626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01238658088470322</v>
+      </c>
+      <c r="E35">
+        <v>0.01316450182370936</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006161745032546977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02569304898699814</v>
+        <v>0.02794850824942209</v>
       </c>
       <c r="C36">
-        <v>0.007646154570208493</v>
+        <v>-0.006933059255660504</v>
       </c>
       <c r="D36">
-        <v>-0.03898272847631046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03907312632284304</v>
+      </c>
+      <c r="E36">
+        <v>0.01694093194139179</v>
+      </c>
+      <c r="F36">
+        <v>-0.01379093308908491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001371926871296987</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007503123924083314</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002624542125686718</v>
+      </c>
+      <c r="E37">
+        <v>0.0001304745949027431</v>
+      </c>
+      <c r="F37">
+        <v>0.00184999316323763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1124641149387942</v>
+        <v>0.1013169135638097</v>
       </c>
       <c r="C39">
-        <v>0.02339457060766325</v>
+        <v>-0.01612933747188591</v>
       </c>
       <c r="D39">
-        <v>-0.147816167587951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1510814449601979</v>
+      </c>
+      <c r="E39">
+        <v>0.05922411159563899</v>
+      </c>
+      <c r="F39">
+        <v>-0.02156467021185358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03877212428944952</v>
+        <v>0.04389787280980485</v>
       </c>
       <c r="C40">
-        <v>0.009369779812345189</v>
+        <v>-0.007704386736352759</v>
       </c>
       <c r="D40">
-        <v>-0.02068807197693652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03289414787345709</v>
+      </c>
+      <c r="E40">
+        <v>0.002627458199200054</v>
+      </c>
+      <c r="F40">
+        <v>0.01689065305996737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0253646702090038</v>
+        <v>0.02764921819511684</v>
       </c>
       <c r="C41">
-        <v>0.007342970533464437</v>
+        <v>-0.006944901496341877</v>
       </c>
       <c r="D41">
-        <v>-0.009203600958440918</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01060853579323581</v>
+      </c>
+      <c r="E41">
+        <v>0.01209843550598226</v>
+      </c>
+      <c r="F41">
+        <v>0.007479935197618307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04230013901122689</v>
+        <v>0.0405258067359132</v>
       </c>
       <c r="C43">
-        <v>0.008253276278168836</v>
+        <v>-0.007726637892528056</v>
       </c>
       <c r="D43">
-        <v>-0.01739685593262163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01938160696836261</v>
+      </c>
+      <c r="E43">
+        <v>0.02553036346213837</v>
+      </c>
+      <c r="F43">
+        <v>0.01596465435100364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06953378865575238</v>
+        <v>0.07849445584192061</v>
       </c>
       <c r="C44">
-        <v>0.02489172294186374</v>
+        <v>-0.01950704234745945</v>
       </c>
       <c r="D44">
-        <v>-0.09677668773033798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09617327966721323</v>
+      </c>
+      <c r="E44">
+        <v>0.06191370770338021</v>
+      </c>
+      <c r="F44">
+        <v>-0.1677496743824978</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02147230103506046</v>
+        <v>0.0244965492057509</v>
       </c>
       <c r="C46">
-        <v>0.004401418927169731</v>
+        <v>-0.003702544674531208</v>
       </c>
       <c r="D46">
-        <v>-0.009906105970925469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0130807605328322</v>
+      </c>
+      <c r="E46">
+        <v>0.0271402964193291</v>
+      </c>
+      <c r="F46">
+        <v>0.005283667306328085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05214171772190449</v>
+        <v>0.05177582951295749</v>
       </c>
       <c r="C47">
-        <v>0.004877275998153963</v>
+        <v>-0.004309677596873045</v>
       </c>
       <c r="D47">
-        <v>-0.007479362079406809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01084095034250899</v>
+      </c>
+      <c r="E47">
+        <v>0.02274170780364962</v>
+      </c>
+      <c r="F47">
+        <v>0.03221800060650062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04790437017203228</v>
+        <v>0.0507720115656639</v>
       </c>
       <c r="C48">
-        <v>0.004738578574061478</v>
+        <v>-0.002262829589498961</v>
       </c>
       <c r="D48">
-        <v>-0.04500106399227283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05004162405745931</v>
+      </c>
+      <c r="E48">
+        <v>-0.004792870596233563</v>
+      </c>
+      <c r="F48">
+        <v>-0.01223701786237304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2012589420755803</v>
+        <v>0.2000894782795506</v>
       </c>
       <c r="C49">
-        <v>0.02230190444986003</v>
+        <v>-0.02018471072867047</v>
       </c>
       <c r="D49">
-        <v>0.0117942931251367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004903810569689001</v>
+      </c>
+      <c r="E49">
+        <v>0.03217131484452992</v>
+      </c>
+      <c r="F49">
+        <v>-0.04786493470650796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04960284192067865</v>
+        <v>0.05187076025754466</v>
       </c>
       <c r="C50">
-        <v>0.01313161963538975</v>
+        <v>-0.01177730221494</v>
       </c>
       <c r="D50">
-        <v>-0.02244474666889518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02325470509130821</v>
+      </c>
+      <c r="E50">
+        <v>0.02985096169930925</v>
+      </c>
+      <c r="F50">
+        <v>-0.01013066278122848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558041325064498</v>
+        <v>0.1494740400415136</v>
       </c>
       <c r="C52">
-        <v>0.02077460457679691</v>
+        <v>-0.01881744039576062</v>
       </c>
       <c r="D52">
-        <v>-0.044614670940103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04278412108104342</v>
+      </c>
+      <c r="E52">
+        <v>0.02330798837292689</v>
+      </c>
+      <c r="F52">
+        <v>-0.0433997301748336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744360900207481</v>
+        <v>0.1695472847793497</v>
       </c>
       <c r="C53">
-        <v>0.02113194696738621</v>
+        <v>-0.02163596901838388</v>
       </c>
       <c r="D53">
-        <v>-0.009073151142243755</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006127060191609487</v>
+      </c>
+      <c r="E53">
+        <v>0.0309134818519361</v>
+      </c>
+      <c r="F53">
+        <v>-0.07584749158001478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01628507008950618</v>
+        <v>0.01943763002700068</v>
       </c>
       <c r="C54">
-        <v>0.01227066113503812</v>
+        <v>-0.01082087825959976</v>
       </c>
       <c r="D54">
-        <v>-0.02886301647602318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0334830932503289</v>
+      </c>
+      <c r="E54">
+        <v>0.02079586756418002</v>
+      </c>
+      <c r="F54">
+        <v>0.002027328663817472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1173277123206537</v>
+        <v>0.1160889330896352</v>
       </c>
       <c r="C55">
-        <v>0.0186787794828919</v>
+        <v>-0.01882420987153147</v>
       </c>
       <c r="D55">
-        <v>-0.007951455376452364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009050379457917451</v>
+      </c>
+      <c r="E55">
+        <v>0.02630946770194874</v>
+      </c>
+      <c r="F55">
+        <v>-0.04767825367982163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1804794920015074</v>
+        <v>0.175966181768871</v>
       </c>
       <c r="C56">
-        <v>0.01910094652402573</v>
+        <v>-0.01959377072810489</v>
       </c>
       <c r="D56">
-        <v>0.0002908477911397892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002415537801569885</v>
+      </c>
+      <c r="E56">
+        <v>0.03293950329523437</v>
+      </c>
+      <c r="F56">
+        <v>-0.05545096488298797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04875132750921075</v>
+        <v>0.0461882800517474</v>
       </c>
       <c r="C58">
-        <v>0.005677145700613185</v>
+        <v>-0.0001225731981734762</v>
       </c>
       <c r="D58">
-        <v>-0.06324609958093405</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07611635453963064</v>
+      </c>
+      <c r="E58">
+        <v>0.03599917976724112</v>
+      </c>
+      <c r="F58">
+        <v>0.03698637677076774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1623774011824059</v>
+        <v>0.1671645786751278</v>
       </c>
       <c r="C59">
-        <v>0.01534095712188951</v>
+        <v>-0.02337914589425103</v>
       </c>
       <c r="D59">
-        <v>0.2237548985282096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2185723534635561</v>
+      </c>
+      <c r="E59">
+        <v>-0.04983262179360309</v>
+      </c>
+      <c r="F59">
+        <v>0.03849170732248849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379930663016103</v>
+        <v>0.2297721369763087</v>
       </c>
       <c r="C60">
-        <v>0.002741088001848022</v>
+        <v>0.0003113858651494282</v>
       </c>
       <c r="D60">
-        <v>-0.04071649034605936</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03924508688237625</v>
+      </c>
+      <c r="E60">
+        <v>0.005735024981641541</v>
+      </c>
+      <c r="F60">
+        <v>-0.004503073011952205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08375282982146003</v>
+        <v>0.07729557223152105</v>
       </c>
       <c r="C61">
-        <v>0.01728095583799941</v>
+        <v>-0.01143696135343552</v>
       </c>
       <c r="D61">
-        <v>-0.1075877418708486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1159918544807684</v>
+      </c>
+      <c r="E61">
+        <v>0.03785139882672831</v>
+      </c>
+      <c r="F61">
+        <v>-0.00826808837211093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1722938102152838</v>
+        <v>0.1692182597369853</v>
       </c>
       <c r="C62">
-        <v>0.02326261142013659</v>
+        <v>-0.0225080236895585</v>
       </c>
       <c r="D62">
-        <v>-0.0009836274133336314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006121867488378704</v>
+      </c>
+      <c r="E62">
+        <v>0.03448904058142171</v>
+      </c>
+      <c r="F62">
+        <v>-0.04133244237627304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04223268917896542</v>
+        <v>0.04585637906290868</v>
       </c>
       <c r="C63">
-        <v>0.00570393890341268</v>
+        <v>-0.001797357573213397</v>
       </c>
       <c r="D63">
-        <v>-0.04799598442649419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06029666222289425</v>
+      </c>
+      <c r="E63">
+        <v>0.02446491496336405</v>
+      </c>
+      <c r="F63">
+        <v>-0.001057404756325399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.112955484860642</v>
+        <v>0.1106291056995092</v>
       </c>
       <c r="C64">
-        <v>0.0158108960199439</v>
+        <v>-0.01257944177253185</v>
       </c>
       <c r="D64">
-        <v>-0.03140190892098681</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04248297936497251</v>
+      </c>
+      <c r="E64">
+        <v>0.02338604893965874</v>
+      </c>
+      <c r="F64">
+        <v>-0.02520953481476973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1437704446199179</v>
+        <v>0.1515978087418258</v>
       </c>
       <c r="C65">
-        <v>0.03524601561088611</v>
+        <v>-0.03538495569257064</v>
       </c>
       <c r="D65">
-        <v>0.05895053662284232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04660811433871653</v>
+      </c>
+      <c r="E65">
+        <v>0.006148938023115775</v>
+      </c>
+      <c r="F65">
+        <v>-0.037116491352284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1356487538977957</v>
+        <v>0.1217940050393377</v>
       </c>
       <c r="C66">
-        <v>0.02191264508494837</v>
+        <v>-0.01452102565502387</v>
       </c>
       <c r="D66">
-        <v>-0.127830580920692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1391328222107128</v>
+      </c>
+      <c r="E66">
+        <v>0.0639793892959399</v>
+      </c>
+      <c r="F66">
+        <v>-0.0271661601734028</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06295160734465162</v>
+        <v>0.05583970117829678</v>
       </c>
       <c r="C67">
-        <v>0.005867505028847899</v>
+        <v>-0.003300802118308623</v>
       </c>
       <c r="D67">
-        <v>-0.05458689286362298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05712722963249667</v>
+      </c>
+      <c r="E67">
+        <v>0.01803127839563842</v>
+      </c>
+      <c r="F67">
+        <v>0.03439007773844849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1072931475527222</v>
+        <v>0.1171005676759063</v>
       </c>
       <c r="C68">
-        <v>0.02357450478743226</v>
+        <v>-0.03391212403926144</v>
       </c>
       <c r="D68">
-        <v>0.2650652085087172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2613990851297758</v>
+      </c>
+      <c r="E68">
+        <v>-0.08853367575871064</v>
+      </c>
+      <c r="F68">
+        <v>-0.0007144524785378234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03963031853935831</v>
+        <v>0.03863972283397948</v>
       </c>
       <c r="C69">
-        <v>0.002176710865637914</v>
+        <v>-0.001338177208211963</v>
       </c>
       <c r="D69">
-        <v>-0.006295556129919572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008151233853243765</v>
+      </c>
+      <c r="E69">
+        <v>0.02390834236998452</v>
+      </c>
+      <c r="F69">
+        <v>0.0009638693166046915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06558181236286494</v>
+        <v>0.06708660809409289</v>
       </c>
       <c r="C70">
-        <v>-0.02441518851104288</v>
+        <v>0.026873369096983</v>
       </c>
       <c r="D70">
-        <v>-0.005254919175612102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02573397311181767</v>
+      </c>
+      <c r="E70">
+        <v>-0.03099869808512563</v>
+      </c>
+      <c r="F70">
+        <v>0.1814602496324212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1257272879411204</v>
+        <v>0.136941476183803</v>
       </c>
       <c r="C71">
-        <v>0.02787659401039431</v>
+        <v>-0.03850430503065796</v>
       </c>
       <c r="D71">
-        <v>0.2815881839208613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2715037975994387</v>
+      </c>
+      <c r="E71">
+        <v>-0.09810706455234072</v>
+      </c>
+      <c r="F71">
+        <v>-0.006418890075334094</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385998192863822</v>
+        <v>0.1445607516131255</v>
       </c>
       <c r="C72">
-        <v>0.02820158195536174</v>
+        <v>-0.0282578027032452</v>
       </c>
       <c r="D72">
-        <v>-0.001586074490100519</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.00406281265071298</v>
+      </c>
+      <c r="E72">
+        <v>0.03781955502528668</v>
+      </c>
+      <c r="F72">
+        <v>-0.02824535603259736</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2053553435938497</v>
+        <v>0.2040178682085912</v>
       </c>
       <c r="C73">
-        <v>0.01733484890161367</v>
+        <v>-0.01365514876017573</v>
       </c>
       <c r="D73">
-        <v>-0.009433843637839667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01850436638221779</v>
+      </c>
+      <c r="E73">
+        <v>0.06722611751201152</v>
+      </c>
+      <c r="F73">
+        <v>-0.04118301318680225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09327757180110652</v>
+        <v>0.09475079378141819</v>
       </c>
       <c r="C74">
-        <v>0.01460817940809633</v>
+        <v>-0.01417905758443458</v>
       </c>
       <c r="D74">
-        <v>-0.0158229058730719</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0172667324483239</v>
+      </c>
+      <c r="E74">
+        <v>0.04486488127367361</v>
+      </c>
+      <c r="F74">
+        <v>-0.05284622359435023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342248029247146</v>
+        <v>0.1266840895860262</v>
       </c>
       <c r="C75">
-        <v>0.03113714713219168</v>
+        <v>-0.02965682928607741</v>
       </c>
       <c r="D75">
-        <v>-0.026296759841424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02948687096249934</v>
+      </c>
+      <c r="E75">
+        <v>0.05746309350412356</v>
+      </c>
+      <c r="F75">
+        <v>-0.02132747572592277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08220738519019245</v>
+        <v>0.09037850938518759</v>
       </c>
       <c r="C77">
-        <v>0.01480995568654969</v>
+        <v>-0.008586641748095824</v>
       </c>
       <c r="D77">
-        <v>-0.1032763379401326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1145971908190022</v>
+      </c>
+      <c r="E77">
+        <v>0.04511521770023154</v>
+      </c>
+      <c r="F77">
+        <v>-0.0331766248263806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.099618188534183</v>
+        <v>0.1009826467759992</v>
       </c>
       <c r="C78">
-        <v>0.04430166037059224</v>
+        <v>-0.03900180124692929</v>
       </c>
       <c r="D78">
-        <v>-0.1098017948088889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1116409545519614</v>
+      </c>
+      <c r="E78">
+        <v>0.07634490062656051</v>
+      </c>
+      <c r="F78">
+        <v>-0.05224174741572445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1650222620346854</v>
+        <v>0.1630557319389797</v>
       </c>
       <c r="C79">
-        <v>0.02573245665542565</v>
+        <v>-0.02466341635605208</v>
       </c>
       <c r="D79">
-        <v>-0.009098002767743805</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01323365667972155</v>
+      </c>
+      <c r="E79">
+        <v>0.0445204934342975</v>
+      </c>
+      <c r="F79">
+        <v>-0.01343616426073489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08101170123369571</v>
+        <v>0.07968067169948871</v>
       </c>
       <c r="C80">
-        <v>0.001736736383780633</v>
+        <v>0.0005629927039540785</v>
       </c>
       <c r="D80">
-        <v>-0.05605432292065145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05403650952300632</v>
+      </c>
+      <c r="E80">
+        <v>0.0326323744973596</v>
+      </c>
+      <c r="F80">
+        <v>0.02534400325755853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204009452535388</v>
+        <v>0.1170398871074076</v>
       </c>
       <c r="C81">
-        <v>0.03294021514441101</v>
+        <v>-0.03306092323066002</v>
       </c>
       <c r="D81">
-        <v>-0.01748246872073309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01449958953645184</v>
+      </c>
+      <c r="E81">
+        <v>0.05514802807911901</v>
+      </c>
+      <c r="F81">
+        <v>-0.01880912400177392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1659663237245505</v>
+        <v>0.1653678860808966</v>
       </c>
       <c r="C82">
-        <v>0.02639660813566025</v>
+        <v>-0.027118131760469</v>
       </c>
       <c r="D82">
-        <v>-0.01016158108168347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002846803179971509</v>
+      </c>
+      <c r="E82">
+        <v>0.02892964010011206</v>
+      </c>
+      <c r="F82">
+        <v>-0.08238655246686345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06314907374613699</v>
+        <v>0.05718340734264631</v>
       </c>
       <c r="C83">
-        <v>0.005456390205468067</v>
+        <v>-0.003247784525204296</v>
       </c>
       <c r="D83">
-        <v>-0.04360177902117695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04837024514171114</v>
+      </c>
+      <c r="E83">
+        <v>0.00112305947792541</v>
+      </c>
+      <c r="F83">
+        <v>0.03489372252644603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06204537870327279</v>
+        <v>0.05669592495342118</v>
       </c>
       <c r="C84">
-        <v>0.01405784139880814</v>
+        <v>-0.01087982698760858</v>
       </c>
       <c r="D84">
-        <v>-0.06848222938484726</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07195272236649503</v>
+      </c>
+      <c r="E84">
+        <v>0.01349684142584096</v>
+      </c>
+      <c r="F84">
+        <v>-0.01486099670472003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1385932762895054</v>
+        <v>0.1346676178456496</v>
       </c>
       <c r="C85">
-        <v>0.02992394075693051</v>
+        <v>-0.02964973541983788</v>
       </c>
       <c r="D85">
-        <v>-0.009997185195517032</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01005695357440864</v>
+      </c>
+      <c r="E85">
+        <v>0.0368680641226324</v>
+      </c>
+      <c r="F85">
+        <v>-0.04814504919724717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.101626141539493</v>
+        <v>0.09355308427209467</v>
       </c>
       <c r="C86">
-        <v>-0.002807915696876124</v>
+        <v>0.005752540571800541</v>
       </c>
       <c r="D86">
-        <v>-0.009518207839381001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05220500981884742</v>
+      </c>
+      <c r="E86">
+        <v>0.2202352011583569</v>
+      </c>
+      <c r="F86">
+        <v>0.8993290503279565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09711446648645665</v>
+        <v>0.09302733094405735</v>
       </c>
       <c r="C87">
-        <v>0.02848072649228672</v>
+        <v>-0.01953368066961248</v>
       </c>
       <c r="D87">
-        <v>-0.07310016145995311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09598037648355988</v>
+      </c>
+      <c r="E87">
+        <v>-0.0518234397870197</v>
+      </c>
+      <c r="F87">
+        <v>-0.05109117971980361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06154739982276538</v>
+        <v>0.06096193238344316</v>
       </c>
       <c r="C88">
-        <v>0.005240196663398416</v>
+        <v>-0.002902304203538857</v>
       </c>
       <c r="D88">
-        <v>-0.05228478664202841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04994775075878093</v>
+      </c>
+      <c r="E88">
+        <v>0.02445493260691793</v>
+      </c>
+      <c r="F88">
+        <v>-0.01471782269552687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.118564291964957</v>
+        <v>0.1274527682284862</v>
       </c>
       <c r="C89">
-        <v>0.004697043941381251</v>
+        <v>-0.0139167288655085</v>
       </c>
       <c r="D89">
-        <v>0.2485703814571266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2447609687317307</v>
+      </c>
+      <c r="E89">
+        <v>-0.09245481665982393</v>
+      </c>
+      <c r="F89">
+        <v>0.007964721480663085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1383497583268675</v>
+        <v>0.1518492201373247</v>
       </c>
       <c r="C90">
-        <v>0.023964562747609</v>
+        <v>-0.03515574274389604</v>
       </c>
       <c r="D90">
-        <v>0.2665239021033346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2684666263838317</v>
+      </c>
+      <c r="E90">
+        <v>-0.1141300170352898</v>
+      </c>
+      <c r="F90">
+        <v>0.009436648256287147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1210287043855942</v>
+        <v>0.1203502942546732</v>
       </c>
       <c r="C91">
-        <v>0.02066153402230569</v>
+        <v>-0.0211748168410754</v>
       </c>
       <c r="D91">
-        <v>0.01499281549004854</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01564952967897474</v>
+      </c>
+      <c r="E91">
+        <v>0.0542438556944204</v>
+      </c>
+      <c r="F91">
+        <v>0.0007903844878294351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1398272624751816</v>
+        <v>0.1475954298408914</v>
       </c>
       <c r="C92">
-        <v>0.01495908786091743</v>
+        <v>-0.02631988577556873</v>
       </c>
       <c r="D92">
-        <v>0.3003397058489679</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2912870703314756</v>
+      </c>
+      <c r="E92">
+        <v>-0.101766433686379</v>
+      </c>
+      <c r="F92">
+        <v>0.01947169346249401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1413149597080742</v>
+        <v>0.1529835490106621</v>
       </c>
       <c r="C93">
-        <v>0.02042758562505754</v>
+        <v>-0.03026041223575248</v>
       </c>
       <c r="D93">
-        <v>0.2682176560504002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.264707748062382</v>
+      </c>
+      <c r="E93">
+        <v>-0.07621299019836379</v>
+      </c>
+      <c r="F93">
+        <v>-0.002136914724329182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1345319174737304</v>
+        <v>0.1272688865298963</v>
       </c>
       <c r="C94">
-        <v>0.02772165452369002</v>
+        <v>-0.02585757189764073</v>
       </c>
       <c r="D94">
-        <v>-0.03986303510888269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04029376275998973</v>
+      </c>
+      <c r="E94">
+        <v>0.05743085775684755</v>
+      </c>
+      <c r="F94">
+        <v>-0.03250219691683184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1245168164010884</v>
+        <v>0.1277566074486861</v>
       </c>
       <c r="C95">
-        <v>0.009628342395221961</v>
+        <v>-0.00387265024166033</v>
       </c>
       <c r="D95">
-        <v>-0.08797522032846472</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0989067453085766</v>
+      </c>
+      <c r="E95">
+        <v>0.05470927557282797</v>
+      </c>
+      <c r="F95">
+        <v>-0.001708539614005955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1233876051533677</v>
+        <v>0.1170483833607843</v>
       </c>
       <c r="C96">
-        <v>-0.9866275323015019</v>
+        <v>0.9862695249331542</v>
       </c>
       <c r="D96">
-        <v>0.01504135768363126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0517361131456661</v>
+      </c>
+      <c r="E96">
+        <v>0.0520008576685614</v>
+      </c>
+      <c r="F96">
+        <v>-0.04234822651316634</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1959404592987019</v>
+        <v>0.1962342937931825</v>
       </c>
       <c r="C97">
-        <v>-0.003859135935922772</v>
+        <v>0.004963558877834571</v>
       </c>
       <c r="D97">
-        <v>0.01894086714665754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02056634897598568</v>
+      </c>
+      <c r="E97">
+        <v>0.02267999515879673</v>
+      </c>
+      <c r="F97">
+        <v>0.1168946920466999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1994095187394183</v>
+        <v>0.205436508937771</v>
       </c>
       <c r="C98">
-        <v>0.01199807297053524</v>
+        <v>-0.007935492932132417</v>
       </c>
       <c r="D98">
-        <v>-0.009737626171715631</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01497518384307624</v>
+      </c>
+      <c r="E98">
+        <v>-0.07604839756586265</v>
+      </c>
+      <c r="F98">
+        <v>0.09204641534903976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05533026755783648</v>
+        <v>0.05540960159666621</v>
       </c>
       <c r="C99">
-        <v>-0.001901045657872344</v>
+        <v>0.003946029663883492</v>
       </c>
       <c r="D99">
-        <v>-0.03157172033156126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03884149210237414</v>
+      </c>
+      <c r="E99">
+        <v>0.02172370690589944</v>
+      </c>
+      <c r="F99">
+        <v>-0.004420782735665698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1425200379922495</v>
+        <v>0.1296441220431952</v>
       </c>
       <c r="C100">
-        <v>-0.03837052936611004</v>
+        <v>0.05111299276974599</v>
       </c>
       <c r="D100">
-        <v>-0.3959017329585111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3524832447994991</v>
+      </c>
+      <c r="E100">
+        <v>-0.8860821594018787</v>
+      </c>
+      <c r="F100">
+        <v>0.1459811179549652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02501785125454512</v>
+        <v>0.02857675646856403</v>
       </c>
       <c r="C101">
-        <v>0.009481869125012412</v>
+        <v>-0.008784450750497016</v>
       </c>
       <c r="D101">
-        <v>-0.0278881506071117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03058314320575763</v>
+      </c>
+      <c r="E101">
+        <v>0.01248312935626311</v>
+      </c>
+      <c r="F101">
+        <v>0.01386085135914258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
